--- a/data/trans_bre/P10_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P10_2-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>-0,05%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 1,14</t>
+          <t>-5,98; 1,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 4,6</t>
+          <t>-4,27; 4,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 1,33</t>
+          <t>-6,67; 2,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 5,44</t>
+          <t>-4,76; 5,31</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,43</t>
+          <t>-7,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>-4,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,78%</t>
+          <t>-5,25%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,25; -3,09</t>
+          <t>-12,18; -2,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 0,52</t>
+          <t>-10,0; 0,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,05; -3,77</t>
+          <t>-13,96; -3,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 0,53</t>
+          <t>-11,34; 0,46</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,14%</t>
+          <t>-4,45%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 14,69</t>
+          <t>-9,04; 16,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,19; 11,89</t>
+          <t>-15,21; 11,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 24,18</t>
+          <t>-11,99; 27,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 19,07</t>
+          <t>-18,43; 17,54</t>
         </is>
       </c>
     </row>
@@ -766,17 +766,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,39%</t>
+          <t>-4,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>-2,41%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,67; -0,58</t>
+          <t>-6,89; -0,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 0,98</t>
+          <t>-5,32; 1,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,78; -0,68</t>
+          <t>-7,99; -0,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 1,16</t>
+          <t>-6,13; 1,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P10_2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,4</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,74%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,05%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.403017193283286</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.227242229418223</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.027421420961718</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.002609682393162996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,98; 1,72</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,27; 4,46</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,67; 2,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,76; 5,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.980782514482856</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.608390423086204</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.06666334213588099</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.05079456537294817</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.724307335302788</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.364883173752716</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.0199640869577566</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.05229208839825484</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-7,42</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,55</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-8,68%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-5,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-12,18; -2,73</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,0; 0,38</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-13,96; -3,29</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,34; 0,46</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-7.421071807631153</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.559193938645811</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.086775869058814</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.05255109506149112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,37</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,55%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-4,45%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-12.18436766493546</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.879582040853897</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1396193772894119</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1127329341200312</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,04; 16,45</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,21; 11,63</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,99; 27,23</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-18,43; 17,54</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-2.729351789197623</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.350473252560033</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.03294755029705972</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.003732119791544742</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-3,71</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,06</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-4,38%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-2,41%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.784347865289726</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.078057400219414</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.02548239788320567</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.04121136792881783</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,89; -0,72</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,32; 1,59</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,99; -0,86</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-6,13; 1,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.035878920113703</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-16.10720468345028</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.1199423653486708</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1973103240279924</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.44682788133008</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.32752048029586</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.2722798457204192</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.1920447222226337</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-3.708257556597305</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.111428417022698</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.04381988320242788</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.02471500006277356</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.894481789950626</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.740321534262685</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.07986128192193664</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.06595474877658523</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.716166913366588</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.405701467987425</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.00863781751362374</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.01687270897526531</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
